--- a/data/Testplan.xlsx
+++ b/data/Testplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TC1-Login" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="115">
   <si>
     <t>Test pass: Y/N</t>
   </si>
@@ -244,9 +244,6 @@
     <t>Address title is entered</t>
   </si>
   <si>
-    <t>MojaDrugaAdresa</t>
-  </si>
-  <si>
     <t>Anoter user address is sucessfully added and is displayed on the "My addresses" page</t>
   </si>
   <si>
@@ -306,9 +303,6 @@
     <t>Current password is entered</t>
   </si>
   <si>
-    <t>" Your personal information has been successfully updated." message is displayed</t>
-  </si>
-  <si>
     <t>Assert</t>
   </si>
   <si>
@@ -348,15 +342,9 @@
     <t>PRECOGNITION: My wishlists page is displayed with one wish list already created (continuing from previous step)</t>
   </si>
   <si>
-    <t>WishList2</t>
-  </si>
-  <si>
     <t>WishList1</t>
   </si>
   <si>
-    <t>Wishlist is created and its details are displayed on the page (two wishlists are present now)</t>
-  </si>
-  <si>
     <t>Verify that user can remove wishlists</t>
   </si>
   <si>
@@ -391,6 +379,30 @@
   </si>
   <si>
     <t>saidosaid</t>
+  </si>
+  <si>
+    <t>MOJADRUGAADRESA</t>
+  </si>
+  <si>
+    <t>Zarko B</t>
+  </si>
+  <si>
+    <t>" Your personal information has been successfully updated." message is displayed, updated user name is visible in the upper right corner of the page</t>
+  </si>
+  <si>
+    <t>Marko B</t>
+  </si>
+  <si>
+    <t>Create multiple wishlists</t>
+  </si>
+  <si>
+    <t>WishList</t>
+  </si>
+  <si>
+    <t>WishList2, WishList3, WishList4, WishList5 are created</t>
+  </si>
+  <si>
+    <t>Wishlists are created and their details are displayed on the page (five wishlists are present now)</t>
   </si>
 </sst>
 </file>
@@ -775,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,7 +915,7 @@
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="1" t="s">
@@ -961,7 +973,7 @@
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>33</v>
@@ -1015,7 +1027,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="1" t="s">
@@ -1089,13 +1101,13 @@
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>5</v>
@@ -1240,8 +1252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1505,10 +1517,13 @@
         <v>67</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -1516,7 +1531,7 @@
         <v>48</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>5</v>
@@ -1528,7 +1543,7 @@
     </row>
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="1" t="s">
@@ -1558,10 +1573,10 @@
     </row>
     <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>5</v>
@@ -1569,10 +1584,10 @@
     </row>
     <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>5</v>
@@ -1590,8 +1605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1606,7 +1621,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1616,7 +1631,7 @@
     </row>
     <row r="3" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="1" t="s">
@@ -1646,7 +1661,7 @@
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>43</v>
@@ -1657,13 +1672,13 @@
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>5</v>
@@ -1671,10 +1686,10 @@
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>20</v>
@@ -1683,23 +1698,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>82</v>
+        <v>109</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
@@ -1710,7 +1728,7 @@
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>43</v>
@@ -1721,10 +1739,10 @@
     </row>
     <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>16</v>
@@ -1735,10 +1753,10 @@
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>20</v>
@@ -1747,18 +1765,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>82</v>
+        <v>109</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1773,8 +1794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1788,7 +1809,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1798,7 +1819,7 @@
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="1" t="s">
@@ -1828,10 +1849,10 @@
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>5</v>
@@ -1839,13 +1860,13 @@
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>5</v>
@@ -1856,13 +1877,13 @@
         <v>48</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1870,7 +1891,7 @@
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="1" t="s">
@@ -1900,19 +1921,19 @@
     </row>
     <row r="11" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -1920,18 +1941,18 @@
         <v>48</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="1" t="s">
@@ -1961,25 +1982,25 @@
     </row>
     <row r="16" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>5</v>
@@ -1988,10 +2009,10 @@
     </row>
     <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>5</v>
@@ -1999,16 +2020,16 @@
     </row>
     <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/data/Testplan.xlsx
+++ b/data/Testplan.xlsx
@@ -11,14 +11,15 @@
     <sheet name="TC2-MyAccountSection" sheetId="3" r:id="rId2"/>
     <sheet name="TC3-MyPersonalInfo" sheetId="4" r:id="rId3"/>
     <sheet name="TC4-MyWishlist" sheetId="5" r:id="rId4"/>
-    <sheet name="UserCredentials" sheetId="2" r:id="rId5"/>
+    <sheet name="TC5-ProductsToCart" sheetId="6" r:id="rId5"/>
+    <sheet name="UserCredentials" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="127">
   <si>
     <t>Test pass: Y/N</t>
   </si>
@@ -403,6 +404,42 @@
   </si>
   <si>
     <t>Wishlists are created and their details are displayed on the page (five wishlists are present now)</t>
+  </si>
+  <si>
+    <t>Verify that user can add one product to cart</t>
+  </si>
+  <si>
+    <t>Click "Add to cart" button on the second item in the first row ("Blouse")</t>
+  </si>
+  <si>
+    <t>Item is added to cart and "There is 1 item in your cart." message is displayed in the popup window.</t>
+  </si>
+  <si>
+    <t>There is 1 item in your cart.</t>
+  </si>
+  <si>
+    <t>PRECOGNITION: User is logged in</t>
+  </si>
+  <si>
+    <t>Click "Home" icon</t>
+  </si>
+  <si>
+    <t>Homepage is displayed</t>
+  </si>
+  <si>
+    <t>Verify that user can add one product to cart and increase its quantity to 3</t>
+  </si>
+  <si>
+    <t>Click on "Cart" button in the upper right corner of the page</t>
+  </si>
+  <si>
+    <t>Cart page is opened and product details are displayed</t>
+  </si>
+  <si>
+    <t>Increase item quantity to 3 by clicking on the "+" button twice</t>
+  </si>
+  <si>
+    <t>Item quantity is increased to 3</t>
   </si>
 </sst>
 </file>
@@ -455,7 +492,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -483,6 +520,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1795,7 +1835,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A9" sqref="A9:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2041,6 +2081,186 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>

--- a/data/Testplan.xlsx
+++ b/data/Testplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TC1-Login" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="137">
   <si>
     <t>Test pass: Y/N</t>
   </si>
@@ -346,27 +346,6 @@
     <t>WishList1</t>
   </si>
   <si>
-    <t>Verify that user can remove wishlists</t>
-  </si>
-  <si>
-    <t>PRECOGNITION: My wishlists page is displayed with two wishlists already created(continuing from previous step)</t>
-  </si>
-  <si>
-    <t>Click "x" button under "Delete" section of the first wishlist</t>
-  </si>
-  <si>
-    <t>"Do you really want to delete this wishlist ?" alert message is displayed</t>
-  </si>
-  <si>
-    <t>Click OK on the "Do you really want to delete this wishlist ?" alert message</t>
-  </si>
-  <si>
-    <t>Wishlist is deleted</t>
-  </si>
-  <si>
-    <t>Click "x" button under "Delete" section of the remaining wishlist</t>
-  </si>
-  <si>
     <t>Verify that user can't log in with invalid e-mail address</t>
   </si>
   <si>
@@ -415,9 +394,6 @@
     <t>Item is added to cart and "There is 1 item in your cart." message is displayed in the popup window.</t>
   </si>
   <si>
-    <t>There is 1 item in your cart.</t>
-  </si>
-  <si>
     <t>PRECOGNITION: User is logged in</t>
   </si>
   <si>
@@ -430,16 +406,70 @@
     <t>Verify that user can add one product to cart and increase its quantity to 3</t>
   </si>
   <si>
-    <t>Click on "Cart" button in the upper right corner of the page</t>
-  </si>
-  <si>
-    <t>Cart page is opened and product details are displayed</t>
-  </si>
-  <si>
     <t>Increase item quantity to 3 by clicking on the "+" button twice</t>
   </si>
   <si>
-    <t>Item quantity is increased to 3</t>
+    <t>Click "Proceed to checkout" button in the popup window</t>
+  </si>
+  <si>
+    <t>Cart details page is displayed and "Your shopping cart contains: 1 Product" message is visible</t>
+  </si>
+  <si>
+    <t>1 Product</t>
+  </si>
+  <si>
+    <t>Item quantity is increased to 3 and "Your shopping cart contains: 3 Products" message is visible</t>
+  </si>
+  <si>
+    <t>3 Products</t>
+  </si>
+  <si>
+    <t>Verify that user can add one product to cart and then delete it</t>
+  </si>
+  <si>
+    <t>Click on the trash can icon in the product row</t>
+  </si>
+  <si>
+    <t>Your shopping cart is empty.</t>
+  </si>
+  <si>
+    <t>Product is deleted from cart and "Your shopping cart is empty." message is displayed</t>
+  </si>
+  <si>
+    <t>Verify that user can remove all wishlists</t>
+  </si>
+  <si>
+    <t>PRECOGNITION: My wishlists page is displayed with five wishlists already created(continuing from previous step)</t>
+  </si>
+  <si>
+    <t>Wishlist1 is deleted</t>
+  </si>
+  <si>
+    <t>Click "x" button under "Delete" section of the Wishlist1</t>
+  </si>
+  <si>
+    <t>Wishlist4 is deleted</t>
+  </si>
+  <si>
+    <t>Wishlist5 is deleted</t>
+  </si>
+  <si>
+    <t>Wishlist3 is deleted</t>
+  </si>
+  <si>
+    <t>Wishlist2 is deleted</t>
+  </si>
+  <si>
+    <t>Click "x" button under "Delete" section of the Wishlist5</t>
+  </si>
+  <si>
+    <t>Click "x" button under "Delete" section of the Wishlist4</t>
+  </si>
+  <si>
+    <t>Click "x" button under "Delete" section of the Wishlist3</t>
+  </si>
+  <si>
+    <t>Click "x" button under "Delete" section of the Wishlist2</t>
   </si>
 </sst>
 </file>
@@ -492,7 +522,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -520,9 +550,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -827,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,7 +965,7 @@
       <c r="B7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
@@ -955,7 +982,7 @@
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="1" t="s">
@@ -1013,7 +1040,7 @@
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>33</v>
@@ -1050,7 +1077,7 @@
       <c r="B15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1067,7 +1094,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="1" t="s">
@@ -1141,13 +1168,13 @@
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>5</v>
@@ -1162,7 +1189,9 @@
       <c r="B23" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="D23" s="3" t="s">
         <v>5</v>
       </c>
@@ -1270,7 +1299,7 @@
       <c r="B31" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="1"/>
+      <c r="C31" s="8"/>
       <c r="D31" s="3" t="s">
         <v>5</v>
       </c>
@@ -1292,7 +1321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -1557,7 +1586,7 @@
         <v>67</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>5</v>
@@ -1645,8 +1674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1743,17 +1772,15 @@
         <v>48</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1810,17 +1837,15 @@
         <v>48</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="E13" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1832,10 +1857,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:F12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1922,9 +1947,7 @@
       <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D8" s="3"/>
@@ -1961,13 +1984,13 @@
     </row>
     <row r="11" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>5</v>
@@ -1981,18 +2004,16 @@
         <v>48</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="E12" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="1" t="s">
@@ -2022,25 +2043,25 @@
     </row>
     <row r="16" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>99</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>136</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>5</v>
@@ -2049,28 +2070,40 @@
     </row>
     <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>99</v>
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2082,10 +2115,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2100,7 +2133,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="1" t="s">
@@ -2130,129 +2163,225 @@
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="B19" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="3">
-        <v>3</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="D19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
